--- a/20170615-zebra/builds/development/data/_raw/Spreadsheet to Star Trib_2017_04_12-bn-sm fin.xlsx
+++ b/20170615-zebra/builds/development/data/_raw/Spreadsheet to Star Trib_2017_04_12-bn-sm fin.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\PR\Start Tribune ZM story\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32080" windowHeight="18480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DOW numbers" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'All confirmed'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1071,7 +1066,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1268,6 +1263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1276,9 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,7 +1335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1375,7 +1370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1552,7 +1547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1562,19 +1557,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="67" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>307</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="47.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1664,7 +1659,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="47.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1692,7 +1687,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="47.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1720,7 +1715,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1748,7 +1743,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="47.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1776,7 +1771,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="47.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1804,7 +1799,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="47.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1834,7 +1829,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="47.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1862,7 +1857,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="47.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1890,7 +1885,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="47.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1918,7 +1913,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="47.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1948,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.5">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1978,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="31.5">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2042,7 +2037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="31.5">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2074,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="31.5">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2102,7 +2097,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="31.5">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2130,7 +2125,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="31.5">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2158,7 +2153,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="31.5">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2186,7 +2181,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="31.5">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2218,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="31.5">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="31.5">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="31.5">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="31.5">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2342,7 +2337,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="31.5">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2374,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="31.5">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2406,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="31.5">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2438,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="31.5">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2468,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="31.5">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2496,7 +2491,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="31.5">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="31.5">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2560,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="31.5">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2592,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="31.5">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2624,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="31.5">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="31.5">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2686,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="31.5">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -2718,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="31.5">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2750,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="31.5">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2782,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="31.5">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -2814,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="31.5">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2842,7 +2837,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="31.5">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2874,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="31.5">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2902,7 +2897,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="31.5">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2930,7 +2925,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="31.5">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2958,7 +2953,7 @@
       <c r="I46" s="13"/>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="31.5">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2990,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="31.5">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -3018,7 +3013,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="31.5">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -3046,7 +3041,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="31.5">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="31.5">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -3106,7 +3101,7 @@
       <c r="I51" s="13"/>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="31.5">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -3138,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="31.5">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -3166,7 +3161,7 @@
       <c r="I53" s="13"/>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="31.5">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -3194,7 +3189,7 @@
       <c r="I54" s="13"/>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="31.5">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -3226,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="31.5">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -3254,7 +3249,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="31.5">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -3286,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="31.5">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -3314,7 +3309,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="31.5">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -3342,7 +3337,7 @@
       <c r="I59" s="13"/>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="31.5">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -3370,7 +3365,7 @@
       <c r="I60" s="13"/>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="32" customHeight="1">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="31.5">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -3424,7 +3419,7 @@
       <c r="I62" s="13"/>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="31.5">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -3454,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="31.5">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -3486,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="31.5">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -3518,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="31.5">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -3550,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="31.5">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -3578,7 +3573,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="31.5">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -3608,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="31.5">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -3636,7 +3631,7 @@
       <c r="I69" s="13"/>
       <c r="J69" s="16"/>
     </row>
-    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="31.5">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -3664,7 +3659,7 @@
       <c r="I70" s="13"/>
       <c r="J70" s="16"/>
     </row>
-    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="31.5">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -3696,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="31.5">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -3726,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="31.5">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -3754,7 +3749,7 @@
       <c r="I73" s="13"/>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="31.5">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -3786,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="31.5">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -3814,7 +3809,7 @@
       <c r="I75" s="13"/>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="31.5">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -3846,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="31.5">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -3874,7 +3869,7 @@
       <c r="I77" s="13"/>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="31.5">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -3902,7 +3897,7 @@
       <c r="I78" s="13"/>
       <c r="J78" s="16"/>
     </row>
-    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="31.5">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -3930,7 +3925,7 @@
       <c r="I79" s="13"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="31.5">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -3962,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="31.5">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -3994,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="31.5">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -4022,7 +4017,7 @@
       <c r="I82" s="13"/>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="31.5">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -4050,7 +4045,7 @@
       <c r="I83" s="13"/>
       <c r="J83" s="16"/>
     </row>
-    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="31.5">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -4078,7 +4073,7 @@
       <c r="I84" s="13"/>
       <c r="J84" s="16"/>
     </row>
-    <row r="85" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="31.5">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -4106,7 +4101,7 @@
       <c r="I85" s="13"/>
       <c r="J85" s="16"/>
     </row>
-    <row r="86" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="31.5">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -4134,7 +4129,7 @@
       <c r="I86" s="13"/>
       <c r="J86" s="16"/>
     </row>
-    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="31.5">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -4162,7 +4157,7 @@
       <c r="I87" s="13"/>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="31.5">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -4190,7 +4185,7 @@
       <c r="I88" s="13"/>
       <c r="J88" s="16"/>
     </row>
-    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="31.5">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -4218,7 +4213,7 @@
       <c r="I89" s="13"/>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -4246,7 +4241,7 @@
       <c r="I90" s="13"/>
       <c r="J90" s="16"/>
     </row>
-    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="31.5">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -4274,7 +4269,7 @@
       <c r="I91" s="13"/>
       <c r="J91" s="16"/>
     </row>
-    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="31.5">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -4302,7 +4297,7 @@
       <c r="I92" s="13"/>
       <c r="J92" s="16"/>
     </row>
-    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="31.5">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -4330,7 +4325,7 @@
       <c r="I93" s="13"/>
       <c r="J93" s="16"/>
     </row>
-    <row r="94" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="31.5">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -4358,7 +4353,7 @@
       <c r="I94" s="13"/>
       <c r="J94" s="16"/>
     </row>
-    <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="31.5">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -4386,7 +4381,7 @@
       <c r="I95" s="13"/>
       <c r="J95" s="16"/>
     </row>
-    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="31.5">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -4414,7 +4409,7 @@
       <c r="I96" s="13"/>
       <c r="J96" s="16"/>
     </row>
-    <row r="97" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="31.5">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -4442,7 +4437,7 @@
       <c r="I97" s="13"/>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="31.5">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -4470,7 +4465,7 @@
       <c r="I98" s="13"/>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="31.5">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -4498,7 +4493,7 @@
       <c r="I99" s="13"/>
       <c r="J99" s="16"/>
     </row>
-    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="31.5">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -4526,7 +4521,7 @@
       <c r="I100" s="13"/>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="31.5">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -4554,7 +4549,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="31.5">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -4582,7 +4577,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="31.5">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -4610,7 +4605,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="31.5">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -4638,7 +4633,7 @@
       <c r="I104" s="13"/>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="31.5">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -4666,7 +4661,7 @@
       <c r="I105" s="13"/>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="31.5">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -4694,7 +4689,7 @@
       <c r="I106" s="13"/>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="31.5">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -4722,7 +4717,7 @@
       <c r="I107" s="13"/>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="31.5">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -4750,7 +4745,7 @@
       <c r="I108" s="13"/>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="31.5">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -4778,7 +4773,7 @@
       <c r="I109" s="13"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="31.5">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -4806,7 +4801,7 @@
       <c r="I110" s="13"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="31.5">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -4834,7 +4829,7 @@
       <c r="I111" s="13"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="31.5">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -4862,7 +4857,7 @@
       <c r="I112" s="13"/>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="31.5">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -4890,7 +4885,7 @@
       <c r="I113" s="13"/>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="31.5">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -4918,7 +4913,7 @@
       <c r="I114" s="13"/>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="31.5">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -4946,7 +4941,7 @@
       <c r="I115" s="13"/>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="31.5">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -4974,7 +4969,7 @@
       <c r="I116" s="13"/>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="31.5">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -5002,7 +4997,7 @@
       <c r="I117" s="13"/>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="47.25">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -5030,7 +5025,7 @@
       <c r="I118" s="13"/>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="31.5">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -5058,7 +5053,7 @@
       <c r="I119" s="13"/>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="31.5">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -5086,7 +5081,7 @@
       <c r="I120" s="13"/>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="31.5">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -5114,7 +5109,7 @@
       <c r="I121" s="13"/>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="31.5">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -5142,7 +5137,7 @@
       <c r="I122" s="13"/>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="31.5">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -5170,7 +5165,7 @@
       <c r="I123" s="13"/>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="31.5">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -5198,7 +5193,7 @@
       <c r="I124" s="13"/>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="31.5">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -5226,7 +5221,7 @@
       <c r="I125" s="13"/>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="31.5">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -5254,7 +5249,7 @@
       <c r="I126" s="13"/>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="31.5">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -5282,7 +5277,7 @@
       <c r="I127" s="13"/>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="31.5">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -5310,7 +5305,7 @@
       <c r="I128" s="13"/>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="31.5">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -5338,7 +5333,7 @@
       <c r="I129" s="13"/>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="31.5">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -5366,7 +5361,7 @@
       <c r="I130" s="13"/>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="31.5">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -5394,7 +5389,7 @@
       <c r="I131" s="13"/>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="31.5">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -5422,7 +5417,7 @@
       <c r="I132" s="13"/>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="31.5">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -5450,7 +5445,7 @@
       <c r="I133" s="13"/>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="31.5">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -5478,7 +5473,7 @@
       <c r="I134" s="13"/>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="J135">
         <f>SUM(J2:J134)</f>
         <v>58</v>
@@ -5490,59 +5485,65 @@
     <sortCondition ref="B2:B134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="36" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="67" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
         <v>299</v>
@@ -5565,14 +5566,14 @@
       <c r="H3" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="24">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="36">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5630,7 +5631,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="36">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5658,7 +5659,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="36">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5686,7 +5687,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="36">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="36">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5744,7 +5745,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="36">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5772,7 +5773,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="36">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5800,7 +5801,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="36">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="36">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5858,7 +5859,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="36">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5886,7 +5887,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="37">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5914,7 +5915,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="24">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="36">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -6002,7 +6003,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="36">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="36">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="60">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -6124,7 +6125,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="72">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="36">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -6246,7 +6247,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -6274,7 +6275,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -6302,7 +6303,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -6330,7 +6331,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -6358,7 +6359,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="36">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -6482,7 +6483,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -6510,7 +6511,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="13">
         <v>33</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="13">
         <v>34</v>
       </c>
@@ -6570,7 +6571,7 @@
       <c r="I37" s="13"/>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="13">
         <v>35</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="13">
         <v>36</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="13">
         <v>38</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="13">
         <v>41</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="13">
         <v>42</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="13">
         <v>43</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="13">
         <v>44</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="24">
       <c r="A48" s="13">
         <v>45</v>
       </c>
@@ -6916,7 +6917,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="13">
         <v>46</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="48">
       <c r="A50" s="13">
         <v>47</v>
       </c>
@@ -6974,7 +6975,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="13">
         <v>48</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="13">
         <v>49</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="13">
         <v>50</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="13">
         <v>51</v>
       </c>
@@ -7098,7 +7099,7 @@
       <c r="I54" s="13"/>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="13">
         <v>52</v>
       </c>
@@ -7130,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="13">
         <v>53</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="13">
         <v>54</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="13">
         <v>55</v>
       </c>
@@ -7222,7 +7223,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="48">
       <c r="A59" s="13">
         <v>56</v>
       </c>
@@ -7250,7 +7251,7 @@
       <c r="I59" s="13"/>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="72">
       <c r="A60" s="13">
         <v>57</v>
       </c>
@@ -7278,7 +7279,7 @@
       <c r="I60" s="13"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="13">
         <v>58</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="13">
         <v>59</v>
       </c>
@@ -7338,7 +7339,7 @@
       <c r="I62" s="13"/>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="32" customHeight="1">
       <c r="A63" s="13">
         <v>60</v>
       </c>
@@ -7366,7 +7367,7 @@
       <c r="I63" s="13"/>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="13">
         <v>61</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="13">
         <v>62</v>
       </c>
@@ -7426,7 +7427,7 @@
       <c r="I65" s="13"/>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="13">
         <v>63</v>
       </c>
@@ -7454,7 +7455,7 @@
       <c r="I66" s="13"/>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="24">
       <c r="A67" s="13">
         <v>64</v>
       </c>
@@ -7482,7 +7483,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="10"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="13">
         <v>65</v>
       </c>
@@ -7510,7 +7511,7 @@
       <c r="I68" s="13"/>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="13">
         <v>66</v>
       </c>
@@ -7538,7 +7539,7 @@
       <c r="I69" s="13"/>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="13">
         <v>67</v>
       </c>
@@ -7566,7 +7567,7 @@
       <c r="I70" s="13"/>
       <c r="J70" s="16"/>
     </row>
-    <row r="71" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="37">
       <c r="A71" s="13">
         <v>68</v>
       </c>
@@ -7594,7 +7595,7 @@
       <c r="I71" s="13"/>
       <c r="J71" s="10"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="13">
         <v>69</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="13">
         <v>70</v>
       </c>
@@ -7654,7 +7655,7 @@
       <c r="I73" s="13"/>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="13">
         <v>71</v>
       </c>
@@ -7682,7 +7683,7 @@
       <c r="I74" s="10"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="13">
         <v>72</v>
       </c>
@@ -7710,7 +7711,7 @@
       <c r="I75" s="13"/>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="13">
         <v>73</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="13">
         <v>74</v>
       </c>
@@ -7770,7 +7771,7 @@
       <c r="I77" s="13"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="13">
         <v>75</v>
       </c>
@@ -7798,7 +7799,7 @@
       <c r="I78" s="13"/>
       <c r="J78" s="16"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="13">
         <v>76</v>
       </c>
@@ -7826,7 +7827,7 @@
       <c r="I79" s="13"/>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="13">
         <v>77</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="13">
         <v>78</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="13">
         <v>79</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="13">
         <v>80</v>
       </c>
@@ -7950,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="36">
       <c r="A84" s="13">
         <v>81</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="13">
         <v>82</v>
       </c>
@@ -8010,7 +8011,7 @@
       <c r="I85" s="13"/>
       <c r="J85" s="10"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="13">
         <v>83</v>
       </c>
@@ -8042,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="13">
         <v>84</v>
       </c>
@@ -8070,7 +8071,7 @@
       <c r="I87" s="13"/>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="13">
         <v>85</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="13">
         <v>86</v>
       </c>
@@ -8130,7 +8131,7 @@
       <c r="I89" s="13"/>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="13">
         <v>87</v>
       </c>
@@ -8158,7 +8159,7 @@
       <c r="I90" s="13"/>
       <c r="J90" s="16"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="13">
         <v>88</v>
       </c>
@@ -8186,7 +8187,7 @@
       <c r="I91" s="13"/>
       <c r="J91" s="16"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="13">
         <v>89</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="13">
         <v>90</v>
       </c>
@@ -8246,7 +8247,7 @@
       <c r="I93" s="13"/>
       <c r="J93" s="16"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="13">
         <v>91</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="13">
         <v>92</v>
       </c>
@@ -8306,7 +8307,7 @@
       <c r="I95" s="13"/>
       <c r="J95" s="16"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="13">
         <v>93</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="13">
         <v>94</v>
       </c>
@@ -8366,7 +8367,7 @@
       <c r="I97" s="13"/>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="13">
         <v>95</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="13">
         <v>96</v>
       </c>
@@ -8424,7 +8425,7 @@
       <c r="I99" s="13"/>
       <c r="J99" s="16"/>
     </row>
-    <row r="100" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="24">
       <c r="A100" s="13">
         <v>97</v>
       </c>
@@ -8452,7 +8453,7 @@
       <c r="I100" s="13"/>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="13">
         <v>98</v>
       </c>
@@ -8480,7 +8481,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="13">
         <v>99</v>
       </c>
@@ -8508,7 +8509,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="13">
         <v>100</v>
       </c>
@@ -8536,7 +8537,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="13">
         <v>101</v>
       </c>
@@ -8564,7 +8565,7 @@
       <c r="I104" s="13"/>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="13">
         <v>102</v>
       </c>
@@ -8592,7 +8593,7 @@
       <c r="I105" s="13"/>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="13">
         <v>103</v>
       </c>
@@ -8620,7 +8621,7 @@
       <c r="I106" s="13"/>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="13">
         <v>104</v>
       </c>
@@ -8648,7 +8649,7 @@
       <c r="I107" s="13"/>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="13">
         <v>105</v>
       </c>
@@ -8676,7 +8677,7 @@
       <c r="I108" s="13"/>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="13">
         <v>106</v>
       </c>
@@ -8704,7 +8705,7 @@
       <c r="I109" s="13"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="13">
         <v>107</v>
       </c>
@@ -8732,7 +8733,7 @@
       <c r="I110" s="13"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="13">
         <v>108</v>
       </c>
@@ -8760,7 +8761,7 @@
       <c r="I111" s="13"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="13">
         <v>109</v>
       </c>
@@ -8788,7 +8789,7 @@
       <c r="I112" s="13"/>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="13">
         <v>110</v>
       </c>
@@ -8816,7 +8817,7 @@
       <c r="I113" s="13"/>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="48">
       <c r="A114" s="13">
         <v>111</v>
       </c>
@@ -8844,7 +8845,7 @@
       <c r="I114" s="13"/>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="24">
       <c r="A115" s="13">
         <v>112</v>
       </c>
@@ -8872,7 +8873,7 @@
       <c r="I115" s="13"/>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="13">
         <v>113</v>
       </c>
@@ -8900,7 +8901,7 @@
       <c r="I116" s="13"/>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="13">
         <v>114</v>
       </c>
@@ -8928,7 +8929,7 @@
       <c r="I117" s="13"/>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="13">
         <v>115</v>
       </c>
@@ -8956,7 +8957,7 @@
       <c r="I118" s="13"/>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="13">
         <v>116</v>
       </c>
@@ -8984,7 +8985,7 @@
       <c r="I119" s="13"/>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="24">
       <c r="A120" s="13">
         <v>117</v>
       </c>
@@ -9012,7 +9013,7 @@
       <c r="I120" s="13"/>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="13">
         <v>118</v>
       </c>
@@ -9040,7 +9041,7 @@
       <c r="I121" s="13"/>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="13">
         <v>119</v>
       </c>
@@ -9068,7 +9069,7 @@
       <c r="I122" s="13"/>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="13">
         <v>120</v>
       </c>
@@ -9096,7 +9097,7 @@
       <c r="I123" s="13"/>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="13">
         <v>121</v>
       </c>
@@ -9124,7 +9125,7 @@
       <c r="I124" s="13"/>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="13">
         <v>122</v>
       </c>
@@ -9152,7 +9153,7 @@
       <c r="I125" s="13"/>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="13">
         <v>123</v>
       </c>
@@ -9180,7 +9181,7 @@
       <c r="I126" s="13"/>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="13">
         <v>124</v>
       </c>
@@ -9208,7 +9209,7 @@
       <c r="I127" s="13"/>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="13">
         <v>125</v>
       </c>
@@ -9236,7 +9237,7 @@
       <c r="I128" s="13"/>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="13">
         <v>126</v>
       </c>
@@ -9264,7 +9265,7 @@
       <c r="I129" s="13"/>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="13">
         <v>127</v>
       </c>
@@ -9292,7 +9293,7 @@
       <c r="I130" s="13"/>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="13">
         <v>128</v>
       </c>
@@ -9320,7 +9321,7 @@
       <c r="I131" s="13"/>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="13">
         <v>129</v>
       </c>
@@ -9348,7 +9349,7 @@
       <c r="I132" s="13"/>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="13">
         <v>130</v>
       </c>
@@ -9376,7 +9377,7 @@
       <c r="I133" s="13"/>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="13">
         <v>131</v>
       </c>
@@ -9404,7 +9405,7 @@
       <c r="I134" s="13"/>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="13">
         <v>132</v>
       </c>
@@ -9432,7 +9433,7 @@
       <c r="I135" s="13"/>
       <c r="J135" s="16"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="13">
         <v>133</v>
       </c>
@@ -9460,7 +9461,7 @@
       <c r="I136" s="13"/>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="13">
         <v>134</v>
       </c>
@@ -9488,7 +9489,7 @@
       <c r="I137" s="13"/>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="36">
       <c r="A138" s="13">
         <v>135</v>
       </c>
@@ -9516,7 +9517,7 @@
       <c r="I138" s="13"/>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="13">
         <v>136</v>
       </c>
@@ -9544,7 +9545,7 @@
       <c r="I139" s="15"/>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="13">
         <v>137</v>
       </c>
@@ -9572,7 +9573,7 @@
       <c r="I140" s="15"/>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="13">
         <v>138</v>
       </c>
@@ -9600,7 +9601,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="13">
         <v>139</v>
       </c>
@@ -9628,7 +9629,7 @@
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="13">
         <v>140</v>
       </c>
@@ -9656,7 +9657,7 @@
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="13">
         <v>141</v>
       </c>
@@ -9684,7 +9685,7 @@
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="13">
         <v>142</v>
       </c>
@@ -9712,7 +9713,7 @@
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="24">
       <c r="A146" s="13">
         <v>143</v>
       </c>
@@ -9740,7 +9741,7 @@
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="13">
         <v>144</v>
       </c>
@@ -9768,7 +9769,7 @@
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="13">
         <v>145</v>
       </c>
@@ -9796,7 +9797,7 @@
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="13">
         <v>146</v>
       </c>
@@ -9824,7 +9825,7 @@
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="24">
       <c r="A150" s="13">
         <v>147</v>
       </c>
@@ -9852,7 +9853,7 @@
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="24">
       <c r="A151" s="13">
         <v>148</v>
       </c>
@@ -9886,6 +9887,11 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>